--- a/Result/PSNR.xlsx
+++ b/Result/PSNR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\ELVC\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\STFE-VC\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6F5F37-2572-4DA6-9136-72B5B7A4CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855E2A1C-B0E2-4925-A7B6-F5C5FDBEA4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1920" windowWidth="14685" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1605" windowWidth="38145" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
-  <si>
-    <t>ELVC(RES)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ELVC(CTX)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>BPP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +56,14 @@
   </si>
   <si>
     <t>MCL-JCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STFE-LVC(RES)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STFE-LVC(CTX)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,6 +122,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -131,7 +132,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,36 +425,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -526,26 +526,26 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,26 +617,26 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,26 +701,26 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,26 +785,26 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,26 +872,26 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
